--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3771.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3771.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.396964600234859</v>
+        <v>0.647790253162384</v>
       </c>
       <c r="B1">
-        <v>2.67118098634715</v>
+        <v>0.7441759705543518</v>
       </c>
       <c r="C1">
-        <v>3.332028066072276</v>
+        <v>4.895464897155762</v>
       </c>
       <c r="D1">
-        <v>3.908858230096973</v>
+        <v>1.896253705024719</v>
       </c>
       <c r="E1">
-        <v>1.631069954172017</v>
+        <v>0.7260017395019531</v>
       </c>
     </row>
   </sheetData>
